--- a/Contas Gestão.xlsx
+++ b/Contas Gestão.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6448B684-439B-4694-B9F1-951EE40EF28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638E0CD-C12C-46A2-BB6E-B435A79DEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89AC9A6D-C75A-4357-80DC-03D686CB18DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89AC9A6D-C75A-4357-80DC-03D686CB18DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>Preço</t>
   </si>
@@ -92,13 +92,19 @@
   </si>
   <si>
     <t>Lucro médio dos produtos</t>
+  </si>
+  <si>
+    <t>Gastos Mensal</t>
+  </si>
+  <si>
+    <t>Gastos annual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +233,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -239,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,24 +569,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D699938C-E52C-4EAC-A79E-8F4A0F0AB827}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="A2:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
@@ -563,7 +597,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -572,7 +606,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
@@ -583,7 +617,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -602,9 +636,16 @@
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -625,9 +666,16 @@
         <f>B6*C6*D6*E6</f>
         <v>34560</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="18">
+        <v>400</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19">
+        <v>48000</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -636,7 +684,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -647,7 +695,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -664,9 +712,16 @@
       <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>500</v>
       </c>
@@ -685,9 +740,16 @@
         <f>B10*C10*D10</f>
         <v>30000</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="19">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
+        <v>13000</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -696,7 +758,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
@@ -707,7 +769,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -726,9 +788,16 @@
       <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -750,9 +819,16 @@
         <f>B14*C14*D14*E14</f>
         <v>14400</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="19">
+        <v>400</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
+        <v>4800</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -761,7 +837,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
@@ -772,7 +848,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -787,9 +863,16 @@
       <c r="G17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>50</v>
       </c>
@@ -806,12 +889,19 @@
         <f>B18*(C18*12)</f>
         <v>12000</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="19">
+        <v>500</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19">
+        <v>6000</v>
+      </c>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="F20" s="9">
         <f>F6+F10+F14+F18</f>
         <v>7580</v>
@@ -820,10 +910,35 @@
         <f>G6+G10+G14+G18</f>
         <v>90960</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="13">
+        <v>6400</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="16">
+        <v>76680</v>
+      </c>
+      <c r="K20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="23">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B8:G8"/>
@@ -831,5 +946,6 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Contas Gestão.xlsx
+++ b/Contas Gestão.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serco\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0638E0CD-C12C-46A2-BB6E-B435A79DEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB209AC-2A6A-4783-BFE7-DC785CF96A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89AC9A6D-C75A-4357-80DC-03D686CB18DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{89AC9A6D-C75A-4357-80DC-03D686CB18DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Preço</t>
   </si>
@@ -92,19 +92,13 @@
   </si>
   <si>
     <t>Lucro médio dos produtos</t>
-  </si>
-  <si>
-    <t>Gastos Mensal</t>
-  </si>
-  <si>
-    <t>Gastos annual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +125,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -200,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,27 +220,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,24 +535,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D699938C-E52C-4EAC-A79E-8F4A0F0AB827}">
-  <dimension ref="B2:K20"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="A2:L23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
@@ -597,7 +563,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -606,7 +572,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
@@ -617,7 +583,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -636,46 +602,32 @@
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>216</v>
       </c>
       <c r="F6" s="10">
         <f>G6/12</f>
-        <v>2880</v>
+        <v>3240</v>
       </c>
       <c r="G6" s="10">
         <f>B6*C6*D6*E6</f>
-        <v>34560</v>
-      </c>
-      <c r="H6" s="18">
-        <v>400</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19">
-        <v>48000</v>
-      </c>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+        <v>38880</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -684,7 +636,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
@@ -695,7 +647,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -712,16 +664,9 @@
       <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>500</v>
       </c>
@@ -740,16 +685,9 @@
         <f>B10*C10*D10</f>
         <v>30000</v>
       </c>
-      <c r="H10" s="19">
-        <v>1100</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19">
-        <v>13000</v>
-      </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -758,7 +696,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
@@ -769,7 +707,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -788,16 +726,9 @@
       <c r="G13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -819,16 +750,9 @@
         <f>B14*C14*D14*E14</f>
         <v>14400</v>
       </c>
-      <c r="H14" s="19">
-        <v>400</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19">
-        <v>4800</v>
-      </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -837,7 +761,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
@@ -848,7 +772,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -863,16 +787,9 @@
       <c r="G17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>50</v>
       </c>
@@ -889,56 +806,24 @@
         <f>B18*(C18*12)</f>
         <v>12000</v>
       </c>
-      <c r="H18" s="19">
-        <v>500</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19">
-        <v>6000</v>
-      </c>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F20" s="9">
         <f>F6+F10+F14+F18</f>
-        <v>7580</v>
+        <v>7940</v>
       </c>
       <c r="G20" s="9">
         <f>G6+G10+G14+G18</f>
-        <v>90960</v>
-      </c>
-      <c r="H20" s="13">
-        <v>6400</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="16">
-        <v>76680</v>
-      </c>
-      <c r="K20" s="16"/>
+        <v>95280</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H9:I9"/>
+  <mergeCells count="5">
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B8:G8"/>
@@ -946,6 +831,5 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>